--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F2rl2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F2rl2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H2">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I2">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J2">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.159947</v>
+        <v>0.2245445</v>
       </c>
       <c r="N2">
-        <v>6.479841</v>
+        <v>0.449089</v>
       </c>
       <c r="O2">
-        <v>0.4871306032952338</v>
+        <v>0.03525495836513261</v>
       </c>
       <c r="P2">
-        <v>0.4963301307509644</v>
+        <v>0.0237827926988904</v>
       </c>
       <c r="Q2">
-        <v>4.1345413881155</v>
+        <v>0.1409005510275</v>
       </c>
       <c r="R2">
-        <v>24.807248328693</v>
+        <v>0.5636022041100001</v>
       </c>
       <c r="S2">
-        <v>0.2584173860819789</v>
+        <v>0.01488193080243299</v>
       </c>
       <c r="T2">
-        <v>0.2218110303411502</v>
+        <v>0.008410232606334861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H3">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I3">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J3">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.246555</v>
+        <v>1.393304333333333</v>
       </c>
       <c r="N3">
-        <v>0.49311</v>
+        <v>4.179913</v>
       </c>
       <c r="O3">
-        <v>0.05560529304443875</v>
+        <v>0.2187579132939151</v>
       </c>
       <c r="P3">
-        <v>0.03777027102587981</v>
+        <v>0.2213592503454706</v>
       </c>
       <c r="Q3">
-        <v>0.4719522525075001</v>
+        <v>0.874291502645</v>
       </c>
       <c r="R3">
-        <v>1.88780901003</v>
+        <v>5.24574901587</v>
       </c>
       <c r="S3">
-        <v>0.02949799167546347</v>
+        <v>0.09234275912078314</v>
       </c>
       <c r="T3">
-        <v>0.01687961744300895</v>
+        <v>0.0782785608292409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H4">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I4">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J4">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,60 +685,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.027518333333334</v>
+        <v>2.796960666666667</v>
       </c>
       <c r="N4">
-        <v>6.082555000000001</v>
+        <v>8.390882000000001</v>
       </c>
       <c r="O4">
-        <v>0.4572641036603275</v>
+        <v>0.4391411584440807</v>
       </c>
       <c r="P4">
-        <v>0.4658995982231559</v>
+        <v>0.4443631600124939</v>
       </c>
       <c r="Q4">
-        <v>3.881048222169167</v>
+        <v>1.75507883353</v>
       </c>
       <c r="R4">
-        <v>23.28628933301501</v>
+        <v>10.53047300118</v>
       </c>
       <c r="S4">
-        <v>0.2425735390420646</v>
+        <v>0.1853716082935016</v>
       </c>
       <c r="T4">
-        <v>0.2082115582244556</v>
+        <v>0.1571387172527234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.524746</v>
+        <v>0.627495</v>
       </c>
       <c r="H5">
-        <v>1.574238</v>
+        <v>1.25499</v>
       </c>
       <c r="I5">
-        <v>0.145425713291194</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J5">
-        <v>0.1837674738022104</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.159947</v>
+        <v>1.954351333333333</v>
       </c>
       <c r="N5">
-        <v>6.479841</v>
+        <v>5.863053999999999</v>
       </c>
       <c r="O5">
-        <v>0.4871306032952338</v>
+        <v>0.3068459698968715</v>
       </c>
       <c r="P5">
-        <v>0.4963301307509644</v>
+        <v>0.3104947969431451</v>
       </c>
       <c r="Q5">
-        <v>1.133423548462</v>
+        <v>1.22634568991</v>
       </c>
       <c r="R5">
-        <v>10.200811936158</v>
+        <v>7.358074139459999</v>
       </c>
       <c r="S5">
-        <v>0.07084131545017902</v>
+        <v>0.1295267588665468</v>
       </c>
       <c r="T5">
-        <v>0.09120933430002551</v>
+        <v>0.1097992779237568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>1.574238</v>
       </c>
       <c r="I6">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J6">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.246555</v>
+        <v>0.2245445</v>
       </c>
       <c r="N6">
-        <v>0.49311</v>
+        <v>0.449089</v>
       </c>
       <c r="O6">
-        <v>0.05560529304443875</v>
+        <v>0.03525495836513261</v>
       </c>
       <c r="P6">
-        <v>0.03777027102587981</v>
+        <v>0.0237827926988904</v>
       </c>
       <c r="Q6">
-        <v>0.12937875003</v>
+        <v>0.117828828197</v>
       </c>
       <c r="R6">
-        <v>0.77627250018</v>
+        <v>0.706972969182</v>
       </c>
       <c r="S6">
-        <v>0.008086439403753372</v>
+        <v>0.01244509304592627</v>
       </c>
       <c r="T6">
-        <v>0.006940947291250754</v>
+        <v>0.01054965199541939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1.574238</v>
       </c>
       <c r="I7">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J7">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,60 +871,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.027518333333334</v>
+        <v>1.393304333333333</v>
       </c>
       <c r="N7">
-        <v>6.082555000000001</v>
+        <v>4.179913</v>
       </c>
       <c r="O7">
-        <v>0.4572641036603275</v>
+        <v>0.2187579132939151</v>
       </c>
       <c r="P7">
-        <v>0.4658995982231559</v>
+        <v>0.2213592503454706</v>
       </c>
       <c r="Q7">
-        <v>1.063932135343334</v>
+        <v>0.7311308756993333</v>
       </c>
       <c r="R7">
-        <v>9.575389218090002</v>
+        <v>6.580177881294</v>
       </c>
       <c r="S7">
-        <v>0.0664979584372616</v>
+        <v>0.07722211886563954</v>
       </c>
       <c r="T7">
-        <v>0.08561719221093414</v>
+        <v>0.098191288410826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1234456666666667</v>
+        <v>0.524746</v>
       </c>
       <c r="H8">
-        <v>0.370337</v>
+        <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.03421116907552791</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J8">
-        <v>0.04323100760208379</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,90 +933,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.159947</v>
+        <v>2.796960666666667</v>
       </c>
       <c r="N8">
-        <v>6.479841</v>
+        <v>8.390882000000001</v>
       </c>
       <c r="O8">
-        <v>0.4871306032952338</v>
+        <v>0.4391411584440807</v>
       </c>
       <c r="P8">
-        <v>0.4963301307509644</v>
+        <v>0.4443631600124939</v>
       </c>
       <c r="Q8">
-        <v>0.2666360973796667</v>
+        <v>1.467693921990667</v>
       </c>
       <c r="R8">
-        <v>2.399724876417</v>
+        <v>13.209245297916</v>
       </c>
       <c r="S8">
-        <v>0.01666530743119716</v>
+        <v>0.1550179841521953</v>
       </c>
       <c r="T8">
-        <v>0.02145685165563819</v>
+        <v>0.1971121203917901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1234456666666667</v>
+        <v>0.524746</v>
       </c>
       <c r="H9">
-        <v>0.370337</v>
+        <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.03421116907552791</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J9">
-        <v>0.04323100760208379</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.246555</v>
+        <v>1.954351333333333</v>
       </c>
       <c r="N9">
-        <v>0.49311</v>
+        <v>5.863053999999999</v>
       </c>
       <c r="O9">
-        <v>0.05560529304443875</v>
+        <v>0.3068459698968715</v>
       </c>
       <c r="P9">
-        <v>0.03777027102587981</v>
+        <v>0.3104947969431451</v>
       </c>
       <c r="Q9">
-        <v>0.030436146345</v>
+        <v>1.025538044761333</v>
       </c>
       <c r="R9">
-        <v>0.18261687807</v>
+        <v>9.229842402851999</v>
       </c>
       <c r="S9">
-        <v>0.00190232208183757</v>
+        <v>0.1083174345742754</v>
       </c>
       <c r="T9">
-        <v>0.001632846873852575</v>
+        <v>0.137730337038653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,75 +1024,75 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H10">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I10">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J10">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>2.027518333333334</v>
+        <v>0.2245445</v>
       </c>
       <c r="N10">
-        <v>6.082555000000001</v>
+        <v>0.449089</v>
       </c>
       <c r="O10">
-        <v>0.4572641036603275</v>
+        <v>0.03525495836513261</v>
       </c>
       <c r="P10">
-        <v>0.4658995982231559</v>
+        <v>0.0237827926988904</v>
       </c>
       <c r="Q10">
-        <v>0.2502883523372222</v>
+        <v>0.06358168380324999</v>
       </c>
       <c r="R10">
-        <v>2.252595171035001</v>
+        <v>0.254326735213</v>
       </c>
       <c r="S10">
-        <v>0.01564353956249319</v>
+        <v>0.006715504032893841</v>
       </c>
       <c r="T10">
-        <v>0.02014130907259304</v>
+        <v>0.003795135976319922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3443785</v>
+        <v>0.2831585</v>
       </c>
       <c r="H11">
-        <v>0.6887570000000001</v>
+        <v>0.566317</v>
       </c>
       <c r="I11">
-        <v>0.09543948692253289</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J11">
-        <v>0.08040152375535912</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,42 +1119,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.159947</v>
+        <v>1.393304333333333</v>
       </c>
       <c r="N11">
-        <v>6.479841</v>
+        <v>4.179913</v>
       </c>
       <c r="O11">
-        <v>0.4871306032952338</v>
+        <v>0.2187579132939151</v>
       </c>
       <c r="P11">
-        <v>0.4963301307509644</v>
+        <v>0.2213592503454706</v>
       </c>
       <c r="Q11">
-        <v>0.7438393079395001</v>
+        <v>0.3945259650701666</v>
       </c>
       <c r="R11">
-        <v>4.463035847637001</v>
+        <v>2.367155790421</v>
       </c>
       <c r="S11">
-        <v>0.04649149484276102</v>
+        <v>0.04166987331931294</v>
       </c>
       <c r="T11">
-        <v>0.03990569879807417</v>
+        <v>0.03532337288196178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,60 +1163,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3443785</v>
+        <v>0.2831585</v>
       </c>
       <c r="H12">
-        <v>0.6887570000000001</v>
+        <v>0.566317</v>
       </c>
       <c r="I12">
-        <v>0.09543948692253289</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J12">
-        <v>0.08040152375535912</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.246555</v>
+        <v>2.796960666666667</v>
       </c>
       <c r="N12">
-        <v>0.49311</v>
+        <v>8.390882000000001</v>
       </c>
       <c r="O12">
-        <v>0.05560529304443875</v>
+        <v>0.4391411584440807</v>
       </c>
       <c r="P12">
-        <v>0.03777027102587981</v>
+        <v>0.4443631600124939</v>
       </c>
       <c r="Q12">
-        <v>0.08490824106750001</v>
+        <v>0.7919831869323334</v>
       </c>
       <c r="R12">
-        <v>0.3396329642700001</v>
+        <v>4.751899121594001</v>
       </c>
       <c r="S12">
-        <v>0.005306940638338321</v>
+        <v>0.08364934628479187</v>
       </c>
       <c r="T12">
-        <v>0.003036787343133628</v>
+        <v>0.07090919205604071</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3443785</v>
+        <v>0.2831585</v>
       </c>
       <c r="H13">
-        <v>0.6887570000000001</v>
+        <v>0.566317</v>
       </c>
       <c r="I13">
-        <v>0.09543948692253289</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J13">
-        <v>0.08040152375535912</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,184 +1243,184 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.027518333333334</v>
+        <v>1.954351333333333</v>
       </c>
       <c r="N13">
-        <v>6.082555000000001</v>
+        <v>5.863053999999999</v>
       </c>
       <c r="O13">
-        <v>0.4572641036603275</v>
+        <v>0.3068459698968715</v>
       </c>
       <c r="P13">
-        <v>0.4658995982231559</v>
+        <v>0.3104947969431451</v>
       </c>
       <c r="Q13">
-        <v>0.6982337223558335</v>
+        <v>0.5533911920196666</v>
       </c>
       <c r="R13">
-        <v>4.189402334135001</v>
+        <v>3.320347152117999</v>
       </c>
       <c r="S13">
-        <v>0.04364105144143356</v>
+        <v>0.05844923505448343</v>
       </c>
       <c r="T13">
-        <v>0.03745903761415133</v>
+        <v>0.04954716585466671</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.547919</v>
+        <v>0.051122</v>
       </c>
       <c r="H14">
-        <v>1.643757</v>
+        <v>0.153366</v>
       </c>
       <c r="I14">
-        <v>0.1518477728287547</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J14">
-        <v>0.1918827213132321</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.159947</v>
+        <v>0.2245445</v>
       </c>
       <c r="N14">
-        <v>6.479841</v>
+        <v>0.449089</v>
       </c>
       <c r="O14">
-        <v>0.4871306032952338</v>
+        <v>0.03525495836513261</v>
       </c>
       <c r="P14">
-        <v>0.4963301307509644</v>
+        <v>0.0237827926988904</v>
       </c>
       <c r="Q14">
-        <v>1.183476000293</v>
+        <v>0.011479163929</v>
       </c>
       <c r="R14">
-        <v>10.651284002637</v>
+        <v>0.068874983574</v>
       </c>
       <c r="S14">
-        <v>0.07396969718710888</v>
+        <v>0.00121243048387952</v>
       </c>
       <c r="T14">
-        <v>0.09523717615824737</v>
+        <v>0.001027772120816223</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.547919</v>
+        <v>0.051122</v>
       </c>
       <c r="H15">
-        <v>1.643757</v>
+        <v>0.153366</v>
       </c>
       <c r="I15">
-        <v>0.1518477728287547</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J15">
-        <v>0.1918827213132321</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.246555</v>
+        <v>1.393304333333333</v>
       </c>
       <c r="N15">
-        <v>0.49311</v>
+        <v>4.179913</v>
       </c>
       <c r="O15">
-        <v>0.05560529304443875</v>
+        <v>0.2187579132939151</v>
       </c>
       <c r="P15">
-        <v>0.03777027102587981</v>
+        <v>0.2213592503454706</v>
       </c>
       <c r="Q15">
-        <v>0.135092169045</v>
+        <v>0.07122850412866666</v>
       </c>
       <c r="R15">
-        <v>0.8105530142700001</v>
+        <v>0.641056537158</v>
       </c>
       <c r="S15">
-        <v>0.008443539906288268</v>
+        <v>0.007523161988179469</v>
       </c>
       <c r="T15">
-        <v>0.007247462389184141</v>
+        <v>0.009566028223441906</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.547919</v>
+        <v>0.051122</v>
       </c>
       <c r="H16">
-        <v>1.643757</v>
+        <v>0.153366</v>
       </c>
       <c r="I16">
-        <v>0.1518477728287547</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J16">
-        <v>0.1918827213132321</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,60 +1429,60 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.027518333333334</v>
+        <v>2.796960666666667</v>
       </c>
       <c r="N16">
-        <v>6.082555000000001</v>
+        <v>8.390882000000001</v>
       </c>
       <c r="O16">
-        <v>0.4572641036603275</v>
+        <v>0.4391411584440807</v>
       </c>
       <c r="P16">
-        <v>0.4658995982231559</v>
+        <v>0.4443631600124939</v>
       </c>
       <c r="Q16">
-        <v>1.110915817681667</v>
+        <v>0.1429862232013334</v>
       </c>
       <c r="R16">
-        <v>9.998242359135002</v>
+        <v>1.286876008812</v>
       </c>
       <c r="S16">
-        <v>0.06943453573535756</v>
+        <v>0.01510221971359197</v>
       </c>
       <c r="T16">
-        <v>0.08939808276580063</v>
+        <v>0.01920313031193967</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1536683333333333</v>
+        <v>0.051122</v>
       </c>
       <c r="H17">
-        <v>0.461005</v>
+        <v>0.153366</v>
       </c>
       <c r="I17">
-        <v>0.04258694108248363</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J17">
-        <v>0.05381506751849974</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,152 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.159947</v>
+        <v>1.954351333333333</v>
       </c>
       <c r="N17">
-        <v>6.479841</v>
+        <v>5.863053999999999</v>
       </c>
       <c r="O17">
-        <v>0.4871306032952338</v>
+        <v>0.3068459698968715</v>
       </c>
       <c r="P17">
-        <v>0.4963301307509644</v>
+        <v>0.3104947969431451</v>
       </c>
       <c r="Q17">
-        <v>0.3319154555783334</v>
+        <v>0.09991034886266666</v>
       </c>
       <c r="R17">
-        <v>2.987239100205</v>
+        <v>0.8991931397639998</v>
       </c>
       <c r="S17">
-        <v>0.02074540230200883</v>
+        <v>0.01055254140156591</v>
       </c>
       <c r="T17">
-        <v>0.02671003949782895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.461005</v>
-      </c>
-      <c r="I18">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J18">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18">
-        <v>0.246555</v>
-      </c>
-      <c r="N18">
-        <v>0.49311</v>
-      </c>
-      <c r="O18">
-        <v>0.05560529304443875</v>
-      </c>
-      <c r="P18">
-        <v>0.03777027102587981</v>
-      </c>
-      <c r="Q18">
-        <v>0.037887695925</v>
-      </c>
-      <c r="R18">
-        <v>0.22732617555</v>
-      </c>
-      <c r="S18">
-        <v>0.00236805933875775</v>
-      </c>
-      <c r="T18">
-        <v>0.002032609685449756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.461005</v>
-      </c>
-      <c r="I19">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J19">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.027518333333334</v>
-      </c>
-      <c r="N19">
-        <v>6.082555000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.4572641036603275</v>
-      </c>
-      <c r="P19">
-        <v>0.4658995982231559</v>
-      </c>
-      <c r="Q19">
-        <v>0.3115653630861111</v>
-      </c>
-      <c r="R19">
-        <v>2.804088267775001</v>
-      </c>
-      <c r="S19">
-        <v>0.01947347944171706</v>
-      </c>
-      <c r="T19">
-        <v>0.02507241833522103</v>
+        <v>0.01341801612606864</v>
       </c>
     </row>
   </sheetData>
